--- a/NformTester/NformTester/Keywordscripts/900.30.100_NavigateParametrics.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.100_NavigateParametrics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1255,7 +1255,7 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3866,14 +3866,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_device_0$</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>;Scenario 1: The data point values for SNMP devices.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3972,6 +3964,14 @@
   <si>
     <t>;Scenario 7 ,8 TBD</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4038,6 +4038,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4067,6 +4068,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4231,7 +4233,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
@@ -4256,7 +4258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4542,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4737,11 +4739,11 @@
       <c r="H6" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>859</v>
+      <c r="I6" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>887</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>847</v>
@@ -4811,7 +4813,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4877,8 +4879,8 @@
       <c r="H11" s="21">
         <v>2</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>859</v>
+      <c r="I11" s="18" t="s">
+        <v>887</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -5183,7 +5185,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="18"/>
@@ -5218,7 +5220,7 @@
         <v>56</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="18"/>
@@ -5274,13 +5276,13 @@
         <v>7</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>857</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -5307,13 +5309,13 @@
         <v>7</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>857</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -5337,13 +5339,13 @@
         <v>7</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I26" s="21" t="s">
         <v>857</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -5379,7 +5381,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5409,7 +5411,7 @@
         <v>56</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="18"/>
@@ -5534,7 +5536,7 @@
         <v>119</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H34" s="3">
         <v>4</v>
@@ -5543,7 +5545,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -5603,7 +5605,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -5621,7 +5623,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5651,7 +5653,7 @@
         <v>56</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="18"/>
@@ -5776,7 +5778,7 @@
         <v>119</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H44" s="3">
         <v>4</v>
@@ -5785,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -5921,7 +5923,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="3"/>
@@ -5933,7 +5935,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="26" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="51" spans="3:15" s="16" customFormat="1">
@@ -5944,7 +5946,7 @@
         <v>832</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F51" s="3">
         <v>5</v>
@@ -5957,7 +5959,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="26" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="52" spans="3:15">
@@ -5983,7 +5985,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="26" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="53" spans="3:15">
@@ -6005,15 +6007,15 @@
       <c r="H53" s="21">
         <v>2</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>859</v>
+      <c r="I53" s="18" t="s">
+        <v>887</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="26" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="54" spans="3:15" s="16" customFormat="1">
@@ -6039,7 +6041,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="26" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="O54" s="25"/>
     </row>
@@ -6060,19 +6062,19 @@
         <v>7</v>
       </c>
       <c r="H55" s="21" t="s">
+        <v>875</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="26" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="56" spans="3:15">
@@ -6098,7 +6100,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="26" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="57" spans="3:15">
@@ -6124,7 +6126,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="26" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="58" spans="3:15" ht="15">
@@ -6132,7 +6134,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
@@ -6153,7 +6155,7 @@
         <v>832</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F59" s="3">
         <v>5</v>
@@ -6292,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
@@ -6310,7 +6312,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>19</v>
@@ -6334,13 +6336,13 @@
         <v>66</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>2</v>
@@ -6358,13 +6360,13 @@
         <v>67</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>2</v>
@@ -6382,10 +6384,10 @@
         <v>68</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F69" s="3">
         <v>5</v>
@@ -6404,13 +6406,13 @@
         <v>69</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>57</v>
@@ -6428,10 +6430,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F71" s="3">
         <v>5</v>
@@ -6450,19 +6452,19 @@
         <v>71</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I72" s="21"/>
       <c r="J72" s="3"/>
@@ -6516,7 +6518,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>620</v>
@@ -6526,7 +6528,7 @@
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
